--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/36_Hakkari_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/36_Hakkari_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBD0A0B8-ADC2-4522-8BD4-0D9B9565A9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C098B3D0-1066-4448-9E48-9945FD226D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8FC0F204-EE15-415B-B65C-AAB54FDB2AB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A9FDD238-0283-43A0-9C91-BC0336A4461A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{374CAFA2-D7C4-4FD5-8C33-46DF5E4BF253}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{061B070E-203D-431F-81FC-2281AC074BD3}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{2C09A448-7677-4CF9-84ED-B8D2A3243A58}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{C1DBFCE8-F436-4E9A-8D17-9E36440C85D7}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{210071C6-1E8B-4076-A42B-7A33FAC9DA5C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{15270AE1-2C4F-4F04-9479-CF660EBC5578}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{0F70FBA8-DCCC-460A-98D3-03F21D1230CC}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{19A3FB54-1A61-46BF-A770-70FC4FA6A2FB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6104FDDE-B1AA-4C61-B4C0-1C80F6C789AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06E36AE-EAC1-40D2-A070-6E9F16687E60}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2421,18 +2421,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{53DFFB8C-604C-4BE6-89BD-BE8721D9F8A6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DAC1D70B-A266-43F1-BB32-572816BED52F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{39B3E57D-D12C-45CC-8252-94BA1CE03BCA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{26CBE3FC-80B1-460B-8067-73D96C2C8F93}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0A6AB037-6708-4257-8139-CBB55FD3B5E3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9ACA0303-87D8-489B-93B8-BE8604E63C16}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0C1FE823-6296-4912-9EA3-2486F3BF0853}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{866223F3-B2FD-4A85-B1B6-9902ECD3F7DC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{795C61B4-283C-4007-A845-E6D1DD9CE495}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6EE47EFF-113C-4DE5-AF32-4D117CE87ACD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5859402E-E897-43BC-A1DA-92E7C06F8B88}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5A89A395-FACD-4EE8-9BAB-E99BE4D06548}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{81DCDB33-5880-4663-BAAA-D3AA0989C01B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7C7A39E8-FA7B-4D22-9B46-EAEDE06247E7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1813ADC6-C8FE-41D0-A3B4-A38B62A9375E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8E34DDBE-62FA-486A-932E-F45774155C13}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{007C0451-937D-4AAA-AAA5-BB4F4528193A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D610ECB7-83A2-4121-AB6E-80B9FBA88737}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5AF27E2A-D14A-4647-A094-C14514DC3666}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{14644CD1-1791-401E-A3D5-655B0008C8F8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5D08B2DC-AA26-4A6C-903F-069008B7358B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{49D3AFB5-077C-4178-B48C-78FA33AFA4CC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{73AD5EF3-83D9-442E-8762-F9D044984D7D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4AE09766-FCC5-4CB4-8665-D54FC064C2A4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2445,7 +2445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C030022B-8A6B-49A3-9F7F-84A0DA1F4AFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834685A2-F348-42A8-959A-C3BDDB229347}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3596,18 +3596,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C8ADFF3F-11D0-4412-BAB4-C0E6C0A52996}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1910C45A-FA29-41C5-9DD8-6BBB4F5D3A9B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B57B22C1-3D93-4C87-B464-0B7DA0A47EF4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{61B5D461-EB92-432E-8F35-5E51E14F056F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F0E73B79-769A-43FA-B376-29D4290FDE3E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B779174D-3FD0-4384-A454-64C167220E20}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6E5FA34B-E7A9-4869-9888-41D594DEDF30}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B5C83228-4F13-4700-9628-7EE736FF0A3C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{44E251DD-3B03-4074-85B4-85DEFD13BBA1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{38D6A301-45CD-486B-88A0-DBCC5D98B043}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2843B915-5B2A-439B-81AA-8F8820CD64C3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0C76E46F-B311-4595-BC42-502A160F4745}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1AADBD27-CCF7-4F83-8CA3-3F8F3BBCB02F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9F0E3894-B6CF-4F47-98FF-29796B5095D2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{343B46FB-5BA0-4371-9583-12757767CC33}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{62B4BF22-09C6-409A-BE0C-76629A2725DC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B65B4D4A-CCF7-4F31-83C2-C1EC54B97E78}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{92711790-6E43-4338-AEAD-DB2EEE20C82E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{493BD1A7-E96F-42E4-A005-030AE43A4173}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FD3CBADD-4073-4D6A-8EF5-0A4F354C763D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{49CDE09D-B5D6-4CD2-A277-8E9477B1E78F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2FD067AA-EA07-4DA9-ACCC-0078FD824A37}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2257AA89-AE12-44B4-A3A1-E6BA02421125}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0454E94D-5C58-48A7-8748-79202674DDA5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3620,7 +3620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B69F745-BA6C-4B9D-9962-468F027606ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6B738B-7AC1-4029-97AB-7355AB49365D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4763,18 +4763,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4B85C0F1-0D23-49CF-A59E-64B0A3E99D08}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{74428FD7-0AB0-4EC4-A1C1-FD4C41A4BF7C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F6225F31-EC40-4EC3-82CE-A1AF0035F8EB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0488DF86-9653-4036-B796-35B6CDA36CA9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FB6B3113-0EA4-4655-9270-1961E49324A1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C3FE3B4E-1850-4FD1-AE09-DCF4A5B8DE0D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0D775137-CBE6-4B2A-8DF1-5A18D57DA33A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{20FCE9C3-5BFF-4532-952E-571909B0B199}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{78FF0496-AF54-40EB-ACB6-1D5559088901}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4C4B5434-8AEF-4EAA-89F5-B2EE40F37CA9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{96A18D51-0A71-4DFF-A713-82B40981E957}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{483B6ED9-9F6B-4372-93FF-CAC9AF434F3B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B8943E2B-E9A1-4242-BEC1-331773D0F98B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C9A7FF43-B266-49DC-A299-F9DC54C5059A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{277FA897-9146-41E4-B09A-EE4DC19DB8DA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9CF54F1D-BB6A-4569-B489-87378D5971F2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{19270184-3707-484D-AFD7-DF4503A6F319}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4EE39E6D-F668-4E92-BFE8-050223E10A33}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BE5EB9AD-3BB2-451F-9224-E2AB41BA0E6D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FD43BBCB-7650-42BA-AB1E-011A4459691C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7A89C910-CF5F-4187-BFF3-051721A76F01}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C6D16CDB-59BD-489C-9A48-51CB5B9192B9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9255ECFC-4B9B-4444-9968-D89FDCD5C68B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4B0ED294-91C5-4C5C-9FB0-507707709DFE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4787,7 +4787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D329BFD8-9DFA-425C-9D79-5EA89C83C94B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD245735-35FA-4BAF-ACCD-2CFEDA1FAABD}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5924,18 +5924,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{413614A5-AB5F-475B-B8C3-226CDA798047}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{690FACC2-B06D-4E68-910E-68FEF122BCF0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9CA246C5-501C-441F-9151-2778174CF747}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7A1EA474-14ED-46B1-9ED8-D6A2C338108B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4617223B-B4D7-41CB-8835-0452141C70BE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{374F08C1-40A9-4197-A771-AE1712EF6F84}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C9AD5977-AE24-4CCC-8D38-802BFEA32018}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{50EB4EC5-5468-4B4D-AB0F-FF62D1A75EA4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F9D97DBC-B4B4-40DC-A9C9-2E3509B1B882}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B1A7FE6E-ADC3-4C97-B150-F95B9A59467E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0A4F8DD3-0C9B-472B-B41C-6187BF609041}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5C60B2EA-311B-4E3C-B894-A12227F13C4F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BB3AD641-2F3E-485F-842F-6C5E59B584A6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AC017629-17CB-4854-A7C4-A2906C3F0D9B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C8C8BB80-C1A5-433F-95BF-EB565C29EC3D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C4EEAEB9-ED9A-45A2-9CDD-2D5285ABFBA6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7479DE1F-F955-4A46-B999-BD71AF1D89B3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{03187DE0-C1F7-4A20-8F12-DA21C1527B72}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FE2E9C26-5BA6-47B5-880B-690AADE6A93C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CE520CE7-0BC5-446A-82C0-AB76CBF30D38}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DFD6F4E1-340C-4968-B2C6-EBEEDAAA7A1F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B5F044FE-FD51-4317-8403-4B32286FE1D3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6E413D26-7AE0-403F-9DB0-BD8DD7B4094C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8605D804-FA5C-46AF-8924-C3D1A3E8E692}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5948,7 +5948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BC2112-68D5-41C1-AF71-F971AAA73671}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605ABE51-6EC0-4A87-9C8D-6367EA8CF25D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7145,18 +7145,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{91CE5DFD-876E-4016-8CD2-0594459729DD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E80E604F-4B8C-4821-9554-C5838A89FE04}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3EA5FEB9-7382-41D8-904E-7B43CB904622}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4830F3BB-3487-4283-AE83-AD57487B4BC6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{61158F71-7D5A-41C0-BF36-49AAAF0436B0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1C7908BD-7E54-4993-92BA-B19B54A04CEE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{497F6743-B05A-4DE8-A5B0-DAA40663C6F8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3074C310-6D09-4004-8A3B-DC7D0436EA4C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E34FF27F-483D-456E-A9FA-84A5D24F957E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0BC822FE-DC98-45B3-9917-B7BB8CD2F4AC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6C976CF0-D334-4B59-9013-2B453C4C7D0D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{95622AFD-295F-4CD0-8350-493750C2F94F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B78E5C0C-1FCD-401C-82A5-7ED4B5A551C4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E2E6008A-7D73-4EFD-91F8-73C5AE0DD16D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D8B3ADF8-1606-4F6F-94D8-AD654569F460}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AFD85AD7-5D23-4B1E-AF70-18E6595C16A2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B0FEF92C-5927-407A-8E91-AD64ABB24C6C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C243DC00-50D6-4C48-A7C2-0EFD77471682}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{267A45D2-C7EE-4CEF-9D3E-1E7DF17856A5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3326242C-B63C-4A64-B472-071C859F6F49}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D55E2632-DF30-4004-AB40-63AB739B28BF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CAF5DE09-C8F4-4CC1-ABED-F59475EC084E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DE63522F-317D-4893-9AF8-9B1FD00FB2E3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CDECAE8C-981B-4C89-822E-6C22C8CB2D6B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7169,7 +7169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06432A2E-E5CA-4AF3-8197-E1B0D8998A2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB39489-1EB7-4657-A0C1-15FA2A878B08}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8366,18 +8366,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4C313D87-1BC5-490B-A9F4-9EB41EA5BA38}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E4B469F6-CE92-43AC-B838-A0E993E1A506}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D989B82B-5E97-4AEB-AD98-CD3D6ECDC016}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1BB32EA7-EF78-4276-B17C-75781315D911}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A2CD19BD-50E1-49D6-AF2E-1D8CC44D57AE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{55D4BAEA-8D2F-4998-A4BF-38C09AAF57C9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{49DAF9BD-2ADD-4262-92A5-48C434CCB8C9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A632DFF2-1978-4829-A29D-5968AA45A9FD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FCC973EA-A299-41CA-A22D-ABB43470436A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C564E4BA-B431-4CDB-9946-75DA3DCF3CED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{57A08D70-7745-490A-B959-58E986543CA2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8D3A8FD3-905A-4D82-80D5-B43BBD2CE008}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{16763CD0-597E-419B-9EBA-CD8D0A2575C7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B3B663F1-D478-4103-A8DF-76784F2DA6A7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{96B0D08C-C65A-4C94-9E1C-D82F5D59DEFE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{358D4684-CD08-4709-BF45-CBE159B9A1B0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{397CB188-F3D1-46A9-BBAD-7DD0925B429B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F44E0C57-2D40-445A-BBB0-8EB14CAE44C3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9C8B94F7-A68F-4EB9-9FFC-37F5D2719AEF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0DB594D5-E605-4A3F-9BFD-8DD3E1F1A7B7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C0C95A6E-F3D4-4F45-963E-3737EB0E1494}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E70DF8B8-92F3-4ADE-A9E7-0DC674EC3EA1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0939FE4C-7BEE-4C9C-A7AC-6C51F2377F7C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AB032A95-5C40-4CF5-AC97-0E0ACE254B8F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8390,7 +8390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F311F1FE-57F3-4A45-A0C0-612FF0C59E28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C00376E-C520-4129-8CD4-A8E8C9260542}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9581,18 +9581,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{78211BCB-BB06-4932-A31C-93E1993B6A3E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{964E4389-B670-4580-B4EF-1E564112AFCC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B2CBE867-A374-4418-8F92-39F6792369EB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AA28DD1B-9DD2-4431-ABC0-DEBC7BFABFD2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FE2351C1-B01A-4D9B-B883-B63AD17477ED}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FC5D3015-B785-47A6-9F2D-993D6B9765E5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A9DC8115-5E29-4747-B21D-F0560C8671C4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EB5103F7-9096-438D-8662-CD1EEBACDAE0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F8B58D5E-3DF2-47A5-8709-774F05C2DE11}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{10CAA572-BFA4-4E3C-AC7D-AE221A61982D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DBAE3771-EC62-4843-B7CE-2E9E4FB76ECA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{91EB4FAA-DB2D-48F2-B618-5A2773583A90}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DA0ECC51-64DD-46A2-B606-E2964D80B2EB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DD8C8F46-CAD6-4E73-A4B3-5FA22A612425}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B45C91D4-CD23-4006-BF07-B64437E17B4B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D06EC6E8-856A-4936-99E0-87B9FE88C5BF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{01A0077B-AD31-4ABF-9910-F29EF904DE03}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B15E15B1-0757-4CF0-8CE8-F4B11A60B757}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{899044E1-F937-4851-B477-10D43AD3B5DF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{84FDED70-2B44-4E7D-83E2-869A93AE3C6C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FB440EAA-9B9C-4811-AD7D-6D1F2CFD5C1C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3D6DD08C-C289-454A-8E8D-61FA359A0EA2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EA7CD1BF-7947-4507-96C9-46C2B5DA2D69}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{39D34262-6F4F-456E-A383-42A9E7ED3A6A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9605,7 +9605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6957C95-1A71-47AB-9CEE-98B7C8F1EB4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1495F8C2-7ED5-4701-BA5F-334063EF9182}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10792,18 +10792,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{99747840-8E9B-4F7A-8B87-9136DE95F105}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E6CA86A7-E29D-46A0-8192-5A88773689EB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D4315B2B-C5B5-4BF8-AA85-6670B71F5AD9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4DC6567D-3BFF-497C-88E0-91067F7FE9D2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1148D08E-9D3B-45B6-8D2B-D551CE1C8D01}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EB70E084-21B3-4D3B-AEDE-AF3F3269113B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{57E966D7-4B0B-4DEA-B397-F95F3B3CD6BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4553713E-7B89-48EE-B73C-2AD517C6C831}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{20C2B5B9-4D5E-45F2-B315-536628D1E2A6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0AAB9AD9-0D33-4567-9BEA-9BAAB5C80B15}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{162BA330-02D6-4019-AA46-2FEA9B41849A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EE90F8C1-6510-4DEC-9A02-FD23F89F8A10}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7E6D81C2-8A69-4D5F-8431-5E450A5618CE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C20855B2-CB81-49AC-A116-BF87B0D952EE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3EA7503C-FE33-40D3-A318-C644EEEE3B7D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5E431814-602C-4F43-8F81-1CD8537DAEAB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{42E3D3CD-A4EB-4D72-8D16-C6B6739A3D3A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A0FC3B89-CB78-4477-B1A5-3F77FD139A0A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{74C22625-8BF5-48CC-99FA-8206E586051A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C21A6BC5-B6F7-47FE-B52B-C3E2C8232BDD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{45718065-A85F-4ED9-801F-86F4733163DF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{647B7FB4-B07C-4362-8676-7A3A31AE199E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E5EEE72E-0E46-402C-B72F-A554DC8B8526}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AAE51D2F-1EE9-410C-A49D-6C3DED71F5D3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10816,7 +10816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2F8E60-E8C0-45FC-AA58-4D20B8CFDD55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFCF88B-54E4-4C5F-8184-2E00AFCBB8FF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11999,18 +11999,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F9D9D5E1-23BA-4E6C-8387-3E4F9AF5508B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{33F4572A-CA96-4B68-836B-063A8B474A97}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{849A326E-DF88-4E45-9174-C5BC7A9FBDCB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F9CD0AA7-27BF-4E58-9E83-A097356E8393}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{854336AF-A8DA-426E-A362-35C28C21F83D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FCD51042-1F1E-4B7B-9845-FC5320D722AB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{69C6F163-6153-4C48-B272-0E06B854E256}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EDD63D53-FA12-4358-8BAC-A3BB79D8A6A8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{205F26E8-531D-4D67-8D04-15A3AD15BA58}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{50F0FEC8-8BA4-43E2-BDEB-87E2CC711143}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BFF2C71D-2BD9-4478-A2F8-447124CAEBF2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B4701DD1-CCF3-47E4-AA73-976454138758}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{83C034AA-2EC3-4311-9D3C-9DB82129243D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DAEB9AAD-1805-4239-B845-8DF32A99D79D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{61C0A9C9-FCCC-4ADD-9F8C-8FF2D6747960}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{76D2D869-6741-4DA4-9141-C97DBA8D861E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FDFFBE76-5777-4597-96CC-E474A50D7176}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{18C77B36-9555-4CDD-B8E6-34D7F7D53D5F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{40EBB212-6C2D-4C38-B715-1081AA252BA3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AABDAA58-9BDA-4484-A2B5-FD2128D90FC0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{29732C95-2E3B-45FD-8020-38C74C10534C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F02137EB-E602-4F01-A1FC-D711810C0A76}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C3277D7C-C8B2-4E25-A647-157029361733}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{00264935-49DF-440A-ABFE-685692BF95C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12023,7 +12023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AD7D7E-D738-472F-8A48-6694C39DAD1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A703EF-A259-40DB-B526-2D1364522AE2}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13192,18 +13192,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{980EE548-6020-42EB-8EED-71661B87AD4B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5F1F635F-02EE-482B-A5C6-0641260FB1F4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A93AB0F2-F492-465A-B811-2B975ED95AFA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E4D0638B-3CF3-48CF-94D3-0DB4D52DABB7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FBDBD872-0DA6-4551-AEC6-D0C36FCE9D42}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BE0102BE-C0C2-457E-8594-D60397E774AF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8B2E3E97-7FE7-4751-8D3D-34AD00BC0614}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C47D3191-E0E6-43BC-87CF-3669DBE2D0D0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A6B5CDD0-827B-465D-9145-0EFF22B69148}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D3859212-B823-4F8E-87B0-26AFDE0F6F36}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{930D2858-6CE2-4BC2-9280-8D9A62D74D55}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C8A8C5F7-A1DC-48F1-B4FC-F4B659E2CF46}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{57CC0C0A-C74D-484F-B6A1-5C87F8167752}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2F4FAE71-8D33-4B05-8F8B-85001B450BA9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{42F27E55-C566-4EEF-8460-3E94B6A6C443}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CACAE69F-9C77-4042-A56E-E920018ECBAC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DC2296F0-1DA8-4F67-8DD9-2FE582FF7579}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3EE604AF-AB30-47DB-BC94-6B1F72444C66}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C7399E02-8290-4816-B8B8-B713D8D26F07}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A1391E0D-AE7A-4337-BB1E-74B9CC787D67}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{19CFAB3C-AC6E-43D3-9852-F113AD7525B0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4FBC5F99-2A0A-4103-9316-A04C21335714}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CF6AE8B1-121F-4ACB-A5C6-A75574682A04}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{199B995B-CA4F-4164-B23D-26309FA9CFCE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13216,7 +13216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9697C563-1466-4850-9384-7ADF1948E1BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C41C60-19C0-40C7-BD19-6AA2FA7ED732}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14377,18 +14377,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B5327CD4-FBE2-4727-81C1-3D75CF4C13AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{59A34A32-B366-4741-9E3A-E8DEA245E7C1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{40BBE579-C899-4B23-997A-F36E83DB4574}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{06590632-11A7-4D7C-B525-2A14CEC56C91}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{28538D1A-5857-4FD1-9019-91A9A40B3047}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{445DA532-689C-4E90-9935-DA2E7E2EC428}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{54A3EEC1-8AAB-49D8-9C37-9AF14E8E18CD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3A061188-F67C-44F5-BAA5-5B10AA9F5BB7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{638FA4FC-052D-4299-BFB8-0E7B5D1247BC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{352F8FC3-F5EC-420F-BDDA-C0329A561AF5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E75B3CDF-A8AD-4F64-B29E-CED718314396}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{015AC358-1DB8-40AC-B750-8017833BD132}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{649D87E9-F668-44D4-8593-6B1F2993C0C8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{63F5ADB0-8B8A-4FA1-B4FA-425C890E082A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BEE746EE-F367-4835-8EC2-52A916501F3D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E56DB035-4796-4D2E-85A9-FECC6C8A91B4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{906006C8-C038-4CBA-8B2D-37729A94B9A9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{62CF6F5C-14DB-49D7-A38A-1E5CB66D2881}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{ACB2442A-9943-431C-A452-3CD209EC99E5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FE077A09-9934-4E5C-AA7A-4037C244E7DB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{24A25B1F-7F2D-4AE0-9109-539493A5DFC7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5EEEB29E-8FEC-40A0-81BB-1CD0F7BE1BDD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6B8C9BEA-B144-46D1-93FA-8EDD98FC7577}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9F9B84CC-A673-4C80-BF53-694429737B8A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14401,7 +14401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD238993-92B9-4D9E-9B0B-68FFCA7AB6B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F900BAE8-FE15-4992-88D3-2B4D10685960}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15554,18 +15554,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{54A3F0BC-6ED8-4C13-9431-40C97582F86A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{74EB1E70-1E41-4EBD-8259-E28DB19D2248}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{23F1FFDC-939D-4567-BF04-29D8AA07A04D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{79A7BA53-FE80-4F55-A4CF-2B732F0BAA4A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{41EC2DE3-C866-47CD-B808-7AB58E629472}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F1738F11-63E5-4BDB-A62E-09B29936FED8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{34DF06C9-BA3F-4457-90BA-C8F25E3A6DB1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5E0FE0FA-7B00-46BC-B3FB-C056C133D1E8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FA096910-68FA-4C92-9FA4-D9D4303C14D5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0B4F16B8-A45F-4024-856D-F528AA866E2A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{91F07F58-91A8-4985-A4B1-A33EC12E15D4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{84117C49-D413-4756-BD1D-A19D68778D2C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{95998803-C4F9-4599-9C42-2932E84D9BD7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A134AFD3-707E-4E60-964B-FACD0DB6BADF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8468415A-D9AD-4F77-92DF-928AD2FAF45D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D6D7283A-936A-4EEE-A8F0-B97E81C19688}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ED39E4F2-98BF-4A65-BA5A-113BC69A600C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{065784E2-25D6-4CFA-B772-69E874D8F86C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1D0946C1-A0E1-425F-8704-4A936FCE00C4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{858A06EC-AAD4-4C9D-9DBF-DA3DB2F8FEAD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A5C1AE76-079C-4225-873F-B1175CE2909C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5298D840-BCD6-4BF8-8471-D8982CD81C5B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3B134011-E98B-4BC2-A2BE-4F3E1C7C8A15}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CF6EAF06-B4F6-4B59-A17C-576B1EF18677}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
